--- a/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/LATAM/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E986090E-5051-44B4-8C50-7F85E30D5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDA73C2-F50F-440E-8C1B-DCB6BB912A71}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E986090E-5051-44B4-8C50-7F85E30D5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81036314-4619-4520-B758-0988C80F4E1D}"/>
   <bookViews>
-    <workbookView xWindow="38685" yWindow="-3450" windowWidth="24705" windowHeight="18810" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40980" yWindow="1860" windowWidth="24810" windowHeight="15600" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>type_hs</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>WALL_AS4</t>
+  </si>
+  <si>
+    <t>type_col</t>
+  </si>
+  <si>
+    <t>COLUMN_AS0</t>
+  </si>
+  <si>
+    <t>COLUMN_AS1</t>
   </si>
 </sst>
 </file>
@@ -1223,13 +1232,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,23 +1252,24 @@
     <col min="7" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1294,50 +1304,53 @@
         <v>39</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1372,11 +1385,11 @@
       <c r="K2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.82</v>
       </c>
       <c r="N2" s="2">
         <v>0.82</v>
@@ -1384,14 +1397,14 @@
       <c r="O2" s="2">
         <v>0.82</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.4</v>
       </c>
       <c r="S2" s="2">
         <v>0.4</v>
@@ -1402,8 +1415,8 @@
       <c r="U2" s="2">
         <v>0.4</v>
       </c>
-      <c r="V2" s="6">
-        <v>0</v>
+      <c r="V2" s="2">
+        <v>0.4</v>
       </c>
       <c r="W2" s="6">
         <v>0</v>
@@ -1411,12 +1424,15 @@
       <c r="X2" s="6">
         <v>0</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1451,11 +1467,11 @@
       <c r="K3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.82</v>
       </c>
       <c r="N3" s="2">
         <v>0.82</v>
@@ -1463,14 +1479,14 @@
       <c r="O3" s="2">
         <v>0.82</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.4</v>
       </c>
       <c r="S3" s="2">
         <v>0.4</v>
@@ -1481,8 +1497,8 @@
       <c r="U3" s="2">
         <v>0.4</v>
       </c>
-      <c r="V3" s="6">
-        <v>0</v>
+      <c r="V3" s="2">
+        <v>0.4</v>
       </c>
       <c r="W3" s="6">
         <v>0</v>
@@ -1490,13 +1506,16 @@
       <c r="X3" s="6">
         <v>0</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="15"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R9" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -1733,6 +1752,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -1902,22 +1936,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1933,28 +1976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/LATAM/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E986090E-5051-44B4-8C50-7F85E30D5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81036314-4619-4520-B758-0988C80F4E1D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E986090E-5051-44B4-8C50-7F85E30D5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440934DE-7C1B-4E55-823A-C7A9255EF735}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="1860" windowWidth="24810" windowHeight="15600" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53085" yWindow="1230" windowWidth="18285" windowHeight="16110" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>Edificio residencial en Mamposteria Estructural - zona calida</t>
   </si>
   <si>
-    <t>CONSTRUCTION_AS3</t>
-  </si>
-  <si>
     <t>ROOF_AS2</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>COLUMN_AS1</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION_AS1</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>48</v>
@@ -1235,10 +1235,10 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>4</v>
@@ -1359,7 +1359,7 @@
         <v>Edificio residencial en Mamposteria Estructural - zona calida</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -1386,7 +1386,7 @@
         <v>47</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>57</v>
@@ -1441,34 +1441,34 @@
         <v>Edificio institucional en concreto reforzado - zona calida</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="L3" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>57</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="14"/>
     </row>
@@ -1752,18 +1752,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1937,6 +1937,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1948,14 +1956,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/LATAM/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E986090E-5051-44B4-8C50-7F85E30D5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440934DE-7C1B-4E55-823A-C7A9255EF735}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2C900-BB9C-C648-A6A3-AA15AF6BE68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53085" yWindow="1230" windowWidth="18285" windowHeight="16110" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35540" yWindow="-9440" windowWidth="30160" windowHeight="17340" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>type_hs</t>
   </si>
@@ -171,9 +171,6 @@
     <t>area_balcon</t>
   </si>
   <si>
-    <t>area_pv</t>
-  </si>
-  <si>
     <t>TIGHTNESS_AS4</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>Nuevo edificio interes social en mexico</t>
-  </si>
-  <si>
-    <t>area_sc</t>
   </si>
   <si>
     <t>STANDARD2</t>
@@ -798,7 +792,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,10 +813,10 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -838,9 +832,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1171,15 +1162,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1193,29 +1184,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10">
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="10">
         <v>2040</v>
@@ -1232,44 +1223,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1304,7 +1293,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>4</v>
@@ -1337,20 +1326,14 @@
         <v>14</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="Y1" s="14"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1359,10 +1342,10 @@
         <v>Edificio residencial en Mamposteria Estructural - zona calida</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>35</v>
@@ -1371,25 +1354,25 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>72</v>
+      <c r="L2" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2">
         <v>0.82</v>
@@ -1421,20 +1404,14 @@
       <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="16" t="s">
+      <c r="X2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="AA2" s="14"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B3" s="12" t="str">
         <f>STANDARD_DEFINITION!B3</f>
@@ -1444,34 +1421,34 @@
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>73</v>
+      <c r="L3" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2">
         <v>0.82</v>
@@ -1503,19 +1480,10 @@
       <c r="W3" s="6">
         <v>0</v>
       </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" s="14"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R9" s="15"/>
+      <c r="X3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -1535,22 +1503,22 @@
       <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1585,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1594,10 +1562,10 @@
         <v>Edificio residencial en Mamposteria Estructural - zona calida</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1609,31 +1577,31 @@
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12" t="str">
         <f>STANDARD_DEFINITION!B3</f>
         <v>Edificio institucional en concreto reforzado - zona calida</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1645,16 +1613,16 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1668,22 +1636,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1703,7 +1671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1712,34 +1680,34 @@
         <v>Edificio residencial en Mamposteria Estructural - zona calida</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12" t="str">
         <f>STANDARD_DEFINITION!B3</f>
         <v>Edificio institucional en concreto reforzado - zona calida</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -1752,21 +1720,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -1936,10 +1889,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1961,19 +1939,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/LATAM/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2C900-BB9C-C648-A6A3-AA15AF6BE68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46F560-5E44-AD48-9388-2CB67E0B9EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35540" yWindow="-9440" windowWidth="30160" windowHeight="17340" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="760" windowWidth="30160" windowHeight="17340" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>type_hs</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>CONSTRUCTION_AS1</t>
+  </si>
+  <si>
+    <t>type_el_pv</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS0</t>
   </si>
 </sst>
 </file>
@@ -1634,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1647,11 +1653,11 @@
     <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1670,8 +1676,11 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1691,8 +1700,11 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="G2" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -1711,6 +1723,9 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1720,6 +1735,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -1889,35 +1919,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1939,9 +1944,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>